--- a/biology/Médecine/Antisepsie/Antisepsie.xlsx
+++ b/biology/Médecine/Antisepsie/Antisepsie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'antisepsie (du grec ancien σῆψις, sepsis, « putréfaction »[1]) est une opération dont le résultat est d'éliminer momentanément les micro-organismes au niveau des tissus vivants par application d'un produit antiseptique.
-Éclairée par les travaux de Louis Pasteur sur le rôle des bactéries de l'air dans les phénomènes de putréfaction[2], elle a été introduite en France à partir de 1874 par le docteur Just Lucas-Championnière, qui s'était formé auprès du chirurgien britannique Joseph Lister. Cela a permis de grandes avancées dans le domaine de la chirurgie (auparavant, la plupart des opérations tournaient mal). D'ailleurs dans les années 1890 Auguste Nélaton promit une statue d'or à l'effigie de Lister[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'antisepsie (du grec ancien σῆψις, sepsis, « putréfaction ») est une opération dont le résultat est d'éliminer momentanément les micro-organismes au niveau des tissus vivants par application d'un produit antiseptique.
+Éclairée par les travaux de Louis Pasteur sur le rôle des bactéries de l'air dans les phénomènes de putréfaction, elle a été introduite en France à partir de 1874 par le docteur Just Lucas-Championnière, qui s'était formé auprès du chirurgien britannique Joseph Lister. Cela a permis de grandes avancées dans le domaine de la chirurgie (auparavant, la plupart des opérations tournaient mal). D'ailleurs dans les années 1890 Auguste Nélaton promit une statue d'or à l'effigie de Lister.
 L'antisepsie lors des accouchements a été l'objet de recherches et de nombreuses publications du Professeur Sébastien Remy à Nancy.
-Chef de clinique obstétricale dès 1882, agrégé d'accouchements en 1886, il publia en 1893 un précis de médecine opératoire obstétricale[4] et écrivit en 1896 un travail original sur « l'antiseptie et sages-femmes », qui demeure une référence dans la lutte contre la mortalité maternelle et infantile.
+Chef de clinique obstétricale dès 1882, agrégé d'accouchements en 1886, il publia en 1893 un précis de médecine opératoire obstétricale et écrivit en 1896 un travail original sur « l'antiseptie et sages-femmes », qui demeure une référence dans la lutte contre la mortalité maternelle et infantile.
 </t>
         </is>
       </c>
